--- a/medicine/Premiers secours et secourisme/Betzalel_Lévy/Betzalel_Lévy.xlsx
+++ b/medicine/Premiers secours et secourisme/Betzalel_Lévy/Betzalel_Lévy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Betzalel_L%C3%A9vy</t>
+          <t>Betzalel_Lévy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Betzalel Abba Lévy[1] (né en 1968) est un rabbin français du XXIe siècle, aumônier militaire de la Brigade des Sapeurs Pompiers de Paris, ancien membre du cabinet de l'ex-grand-rabbin de France, Gilles Bernheim, chargé des affaires familiales et religieuses[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Betzalel Abba Lévy (né en 1968) est un rabbin français du XXIe siècle, aumônier militaire de la Brigade des Sapeurs Pompiers de Paris, ancien membre du cabinet de l'ex-grand-rabbin de France, Gilles Bernheim, chargé des affaires familiales et religieuses.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Betzalel_L%C3%A9vy</t>
+          <t>Betzalel_Lévy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Betzalel Lévy est né en 1968. Il est fils de rabbin.
 Betzalel Lévy fait ses études rabbiniques au Séminaire israélite de France (SIF) à Paris. 
 Rabbin, il devient membre du Beth Din de Paris, en 1998, où il s'occupe des divorces religieux. 
-Il est Aumônier militaire[3] à la Brigade des Sapeurs Pompiers de Paris. 
+Il est Aumônier militaire à la Brigade des Sapeurs Pompiers de Paris. 
 Il était membre du cabinet de l'ex-grand-rabbin de France, Gilles Bernheim, chargé des affaires familiales et religieuses.
-Betzalel Lévy et son épouse Ilana ont 8 enfants[4].
+Betzalel Lévy et son épouse Ilana ont 8 enfants.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Betzalel_L%C3%A9vy</t>
+          <t>Betzalel_Lévy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chevalier de l'ordre national du Mérite, à la date du 4 mai 2012.</t>
         </is>
